--- a/config_7.27/game_module_config_cjj.xlsx
+++ b/config_7.27/game_module_config_cjj.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.27\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -506,7 +511,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -524,7 +529,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -542,7 +547,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -560,7 +565,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1278,7 +1283,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1373,7 +1378,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1411,7 +1416,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1446,7 +1451,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1464,7 +1469,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1490,7 +1495,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1525,7 +1530,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1560,7 +1565,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1663,7 +1668,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1698,7 +1703,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1733,7 +1738,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1768,7 +1773,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1803,7 +1808,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1838,7 +1843,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1873,7 +1878,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2002,7 +2007,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2028,7 +2033,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -3568,9 +3573,6 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_022</t>
-  </si>
-  <si>
     <t>扩展活动皮肤</t>
   </si>
   <si>
@@ -3785,18 +3787,16 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_017</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="35">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3820,7 +3820,7 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3838,7 +3838,7 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3850,7 +3850,7 @@
     <font>
       <sz val="11"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3862,13 +3862,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3880,7 +3880,7 @@
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3890,133 +3890,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4025,21 +3902,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4048,13 +3924,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399822992645039"/>
+        <fgColor theme="4" tint="0.39979247413556324"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4078,13 +3954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799829096346934"/>
+        <fgColor theme="4" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4096,192 +3972,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399822992645039"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39979247413556324"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4304,255 +4006,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4591,13 +4051,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4736,63 +4196,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5050,20 +4466,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C321" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C341" sqref="C341"/>
+      <selection pane="bottomRight" activeCell="C334" sqref="C334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5079,7 +4494,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5108,7 +4523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5134,7 +4549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5160,7 +4575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5186,7 +4601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -5212,7 +4627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -5238,7 +4653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -5264,7 +4679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:9">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -5290,7 +4705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:9">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -5316,7 +4731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:9">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -5342,7 +4757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:9">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -5368,7 +4783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:9">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -5394,7 +4809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:9">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -5420,7 +4835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:9">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -5446,7 +4861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:9">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -5472,7 +4887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:9">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -5498,7 +4913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:9">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -5524,7 +4939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:9">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5550,7 +4965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:9">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5576,7 +4991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:9">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5602,7 +5017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:9">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5628,7 +5043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:9">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5654,7 +5069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:9">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5680,7 +5095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:9">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5706,7 +5121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:9">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5732,7 +5147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:9">
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5758,7 +5173,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:9">
+    <row r="27" spans="1:9" ht="16.5">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5784,7 +5199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:9">
+    <row r="28" spans="1:9" ht="16.5">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5810,7 +5225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:9">
+    <row r="29" spans="1:9" ht="16.5">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5836,7 +5251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:9">
+    <row r="30" spans="1:9" ht="16.5">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5862,7 +5277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:9">
+    <row r="31" spans="1:9" ht="16.5">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5888,7 +5303,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:9">
+    <row r="32" spans="1:9" ht="16.5">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5914,7 +5329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:9">
+    <row r="33" spans="1:9" ht="16.5">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5940,7 +5355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:9">
+    <row r="34" spans="1:9" ht="16.5">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5966,7 +5381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:9">
+    <row r="35" spans="1:9" ht="16.5">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5992,7 +5407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:9">
+    <row r="36" spans="1:9" ht="16.5">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -6018,7 +5433,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:9">
+    <row r="37" spans="1:9" ht="16.5">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -6044,7 +5459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:9">
+    <row r="38" spans="1:9" ht="16.5">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -6070,7 +5485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:9">
+    <row r="39" spans="1:9" ht="16.5">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -6096,7 +5511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:9">
+    <row r="40" spans="1:9" ht="16.5">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -6122,7 +5537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:9">
+    <row r="41" spans="1:9" ht="16.5">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -6148,7 +5563,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:9">
+    <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -6174,7 +5589,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:9">
+    <row r="43" spans="1:9" ht="16.5">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6200,7 +5615,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:9">
+    <row r="44" spans="1:9" ht="16.5">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6226,7 +5641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:9">
+    <row r="45" spans="1:9" ht="16.5">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -6252,7 +5667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:9">
+    <row r="46" spans="1:9" ht="16.5">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6278,7 +5693,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:9">
+    <row r="47" spans="1:9" ht="16.5">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -6304,7 +5719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:9">
+    <row r="48" spans="1:9" ht="16.5">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -6330,7 +5745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:9">
+    <row r="49" spans="1:9" ht="16.5">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -6356,7 +5771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:9">
+    <row r="50" spans="1:9" ht="16.5">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -6382,7 +5797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:9">
+    <row r="51" spans="1:9" ht="16.5">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -6408,7 +5823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:9">
+    <row r="52" spans="1:9" ht="16.5">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -6432,7 +5847,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -6458,7 +5873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:9">
+    <row r="54" spans="1:9" ht="16.5">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -6484,7 +5899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:9">
+    <row r="55" spans="1:9" ht="16.5">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -6510,7 +5925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:9">
+    <row r="56" spans="1:9" ht="16.5">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -6536,7 +5951,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:9">
+    <row r="57" spans="1:9" ht="16.5">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -6562,7 +5977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:9">
+    <row r="58" spans="1:9" ht="16.5">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -6588,7 +6003,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:9">
+    <row r="59" spans="1:9" ht="16.5">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -6614,7 +6029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:9">
+    <row r="60" spans="1:9" ht="16.5">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -6640,7 +6055,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:9">
+    <row r="61" spans="1:9" ht="16.5">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -6666,7 +6081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:9">
+    <row r="62" spans="1:9" ht="16.5">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -6692,7 +6107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:9">
+    <row r="63" spans="1:9" ht="16.5">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -6718,7 +6133,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:9">
+    <row r="64" spans="1:9" ht="16.5">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -6744,7 +6159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:9">
+    <row r="65" spans="1:9" ht="16.5">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -6770,7 +6185,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="1:9">
+    <row r="66" spans="1:9" ht="16.5">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -6796,7 +6211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:9">
+    <row r="67" spans="1:9" ht="16.5">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -6822,7 +6237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:9">
+    <row r="68" spans="1:9" ht="16.5">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -6848,7 +6263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:9">
+    <row r="69" spans="1:9" ht="16.5">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -6874,7 +6289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:9">
+    <row r="70" spans="1:9" ht="16.5">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -6900,7 +6315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:9">
+    <row r="71" spans="1:9" ht="16.5">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -6926,7 +6341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:9">
+    <row r="72" spans="1:9" ht="16.5">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -6952,7 +6367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:9">
+    <row r="73" spans="1:9" ht="16.5">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -6978,7 +6393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="16.5" spans="1:9">
+    <row r="74" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -7004,7 +6419,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:9">
+    <row r="75" spans="1:9" ht="16.5">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -7030,7 +6445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="76" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -7056,7 +6471,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:9">
+    <row r="77" spans="1:9" ht="16.5">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -7082,7 +6497,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:9">
+    <row r="78" spans="1:9" ht="16.5">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -7108,7 +6523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:9">
+    <row r="79" spans="1:9" ht="16.5">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -7134,7 +6549,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:9">
+    <row r="80" spans="1:9" ht="16.5">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -7160,7 +6575,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:9">
+    <row r="81" spans="1:9" ht="16.5">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -7186,7 +6601,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:9">
+    <row r="82" spans="1:9" ht="16.5">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -7212,7 +6627,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:9">
+    <row r="83" spans="1:9" ht="16.5">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -7238,7 +6653,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:9">
+    <row r="84" spans="1:9" ht="16.5">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -7264,7 +6679,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:9">
+    <row r="85" spans="1:9" ht="16.5">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -7290,7 +6705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:9">
+    <row r="86" spans="1:9" ht="16.5">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -7316,7 +6731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:9">
+    <row r="87" spans="1:9" ht="16.5">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -7342,7 +6757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:9">
+    <row r="88" spans="1:9" ht="16.5">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -7368,7 +6783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:9">
+    <row r="89" spans="1:9" ht="16.5">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -7394,7 +6809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:9">
+    <row r="90" spans="1:9" ht="16.5">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -7420,7 +6835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:9">
+    <row r="91" spans="1:9" ht="16.5">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -7446,7 +6861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:9">
+    <row r="92" spans="1:9" ht="16.5">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -7472,7 +6887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:9">
+    <row r="93" spans="1:9" ht="16.5">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -7498,7 +6913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:9">
+    <row r="94" spans="1:9" ht="16.5">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -7524,7 +6939,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:9">
+    <row r="95" spans="1:9" ht="16.5">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -7550,7 +6965,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:9">
+    <row r="96" spans="1:9" ht="16.5">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -7576,7 +6991,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:9">
+    <row r="97" spans="1:9" ht="16.5">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -7602,7 +7017,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:9">
+    <row r="98" spans="1:9" ht="16.5">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -7628,7 +7043,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:9">
+    <row r="99" spans="1:9" ht="16.5">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -7654,7 +7069,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:9">
+    <row r="100" spans="1:9" ht="16.5">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -7680,7 +7095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:9">
+    <row r="101" spans="1:9" ht="16.5">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -7706,7 +7121,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:9">
+    <row r="102" spans="1:9" ht="16.5">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -7732,7 +7147,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:9">
+    <row r="103" spans="1:9" ht="16.5">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -7758,7 +7173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:9">
+    <row r="104" spans="1:9" ht="16.5">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -7784,7 +7199,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="1:9">
+    <row r="105" spans="1:9" ht="16.5">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -7810,7 +7225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="1:9">
+    <row r="106" spans="1:9" ht="16.5">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -7836,7 +7251,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:9">
+    <row r="107" spans="1:9" ht="16.5">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -7862,7 +7277,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="1:9">
+    <row r="108" spans="1:9" ht="16.5">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -7888,7 +7303,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:9">
+    <row r="109" spans="1:9" ht="16.5">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -7914,7 +7329,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" ht="16.5" spans="1:9">
+    <row r="110" spans="1:9" ht="16.5">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -7940,7 +7355,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:9">
+    <row r="111" spans="1:9" ht="16.5">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -7966,7 +7381,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:9">
+    <row r="112" spans="1:9" ht="16.5">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -7992,7 +7407,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="1:9">
+    <row r="113" spans="1:9" ht="16.5">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -8018,7 +7433,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:9">
+    <row r="114" spans="1:9" ht="16.5">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -8044,7 +7459,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:9">
+    <row r="115" spans="1:9" ht="16.5">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -8070,7 +7485,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:9">
+    <row r="116" spans="1:9" ht="16.5">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -8096,7 +7511,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:9">
+    <row r="117" spans="1:9" ht="16.5">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -8122,7 +7537,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:9">
+    <row r="118" spans="1:9" ht="16.5">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -8148,7 +7563,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="119" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A119" s="24">
         <v>118</v>
       </c>
@@ -8174,7 +7589,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:9">
+    <row r="120" spans="1:9" ht="16.5">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -8200,7 +7615,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:9">
+    <row r="121" spans="1:9" ht="16.5">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -8226,7 +7641,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:9">
+    <row r="122" spans="1:9" ht="16.5">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -8252,7 +7667,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:9">
+    <row r="123" spans="1:9" ht="16.5">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -8278,7 +7693,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:9">
+    <row r="124" spans="1:9" ht="16.5">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -8304,7 +7719,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:9">
+    <row r="125" spans="1:9" ht="16.5">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -8330,7 +7745,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:9">
+    <row r="126" spans="1:9" ht="16.5">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -8356,7 +7771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:9">
+    <row r="127" spans="1:9" ht="16.5">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -8382,7 +7797,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:9">
+    <row r="128" spans="1:9" ht="16.5">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -8408,7 +7823,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:9">
+    <row r="129" spans="1:9" ht="16.5">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -8434,7 +7849,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:9">
+    <row r="130" spans="1:9" ht="16.5">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -8460,7 +7875,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:9">
+    <row r="131" spans="1:9" ht="16.5">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -8486,7 +7901,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:9">
+    <row r="132" spans="1:9" ht="16.5">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -8512,7 +7927,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:9">
+    <row r="133" spans="1:9" ht="16.5">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -8538,7 +7953,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:9">
+    <row r="134" spans="1:9" ht="16.5">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -8564,7 +7979,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:9">
+    <row r="135" spans="1:9" ht="16.5">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -8590,7 +8005,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:9">
+    <row r="136" spans="1:9" ht="16.5">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -8616,7 +8031,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:9">
+    <row r="137" spans="1:9" ht="16.5">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -8642,7 +8057,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:9">
+    <row r="138" spans="1:9" ht="16.5">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -8668,7 +8083,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:9">
+    <row r="139" spans="1:9" ht="16.5">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -8694,7 +8109,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" ht="16.5" spans="1:9">
+    <row r="140" spans="1:9" ht="16.5">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -8720,7 +8135,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:9">
+    <row r="141" spans="1:9" ht="16.5">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -8746,7 +8161,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:9">
+    <row r="142" spans="1:9" ht="16.5">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -8772,7 +8187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:9">
+    <row r="143" spans="1:9" ht="16.5">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -8798,7 +8213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:9">
+    <row r="144" spans="1:9" ht="16.5">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -8824,7 +8239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:9">
+    <row r="145" spans="1:9" ht="16.5">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -8850,7 +8265,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:9">
+    <row r="146" spans="1:9" ht="16.5">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -8876,7 +8291,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:9">
+    <row r="147" spans="1:9" ht="16.5">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -8902,7 +8317,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:9">
+    <row r="148" spans="1:9" ht="16.5">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -8928,7 +8343,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:9">
+    <row r="149" spans="1:9" ht="16.5">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -8954,7 +8369,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:9">
+    <row r="150" spans="1:9" ht="16.5">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -8980,7 +8395,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:9">
+    <row r="151" spans="1:9" ht="16.5">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -9006,7 +8421,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:9">
+    <row r="152" spans="1:9" ht="16.5">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -9032,7 +8447,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:9">
+    <row r="153" spans="1:9" ht="16.5">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -9058,7 +8473,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:9">
+    <row r="154" spans="1:9" ht="16.5">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -9084,7 +8499,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:9">
+    <row r="155" spans="1:9" ht="16.5">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -9110,7 +8525,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:9">
+    <row r="156" spans="1:9" ht="16.5">
       <c r="A156" s="15">
         <v>155</v>
       </c>
@@ -9136,7 +8551,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:9">
+    <row r="157" spans="1:9" ht="16.5">
       <c r="A157" s="15">
         <v>156</v>
       </c>
@@ -9162,7 +8577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:9">
+    <row r="158" spans="1:9" ht="16.5">
       <c r="A158" s="15">
         <v>157</v>
       </c>
@@ -9188,7 +8603,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:9">
+    <row r="159" spans="1:9" ht="16.5">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -9214,7 +8629,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:9">
+    <row r="160" spans="1:9" ht="16.5">
       <c r="A160" s="15">
         <v>159</v>
       </c>
@@ -9240,7 +8655,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:9">
+    <row r="161" spans="1:9" ht="16.5">
       <c r="A161" s="15">
         <v>160</v>
       </c>
@@ -9266,7 +8681,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:9">
+    <row r="162" spans="1:9" ht="16.5">
       <c r="A162" s="15">
         <v>161</v>
       </c>
@@ -9292,7 +8707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:9">
+    <row r="163" spans="1:9" ht="16.5">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -9318,7 +8733,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:9">
+    <row r="164" spans="1:9" ht="16.5">
       <c r="A164" s="15">
         <v>163</v>
       </c>
@@ -9344,7 +8759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:9">
+    <row r="165" spans="1:9" ht="16.5">
       <c r="A165" s="15">
         <v>164</v>
       </c>
@@ -9370,7 +8785,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:9">
+    <row r="166" spans="1:9" ht="16.5">
       <c r="A166" s="15">
         <v>165</v>
       </c>
@@ -9396,7 +8811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:9">
+    <row r="167" spans="1:9" ht="16.5">
       <c r="A167" s="15">
         <v>166</v>
       </c>
@@ -9422,7 +8837,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:9">
+    <row r="168" spans="1:9" ht="16.5">
       <c r="A168" s="15">
         <v>167</v>
       </c>
@@ -9448,7 +8863,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:9">
+    <row r="169" spans="1:9" ht="16.5">
       <c r="A169" s="15">
         <v>168</v>
       </c>
@@ -9472,7 +8887,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:9">
+    <row r="170" spans="1:9" ht="16.5">
       <c r="A170" s="15">
         <v>169</v>
       </c>
@@ -9496,7 +8911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:9">
+    <row r="171" spans="1:9" ht="16.5">
       <c r="A171" s="15">
         <v>170</v>
       </c>
@@ -9520,7 +8935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:9">
+    <row r="172" spans="1:9" ht="16.5">
       <c r="A172" s="15">
         <v>171</v>
       </c>
@@ -9544,7 +8959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" ht="16.5" spans="1:9">
+    <row r="173" spans="1:9" ht="16.5">
       <c r="A173" s="15">
         <v>172</v>
       </c>
@@ -9570,7 +8985,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" ht="16.5" spans="1:9">
+    <row r="174" spans="1:9" ht="16.5">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -9594,7 +9009,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" ht="16.5" spans="1:9">
+    <row r="175" spans="1:9" ht="16.5">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -9618,7 +9033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" ht="16.5" spans="1:9">
+    <row r="176" spans="1:9" ht="16.5">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -9642,7 +9057,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" ht="16.5" spans="1:9">
+    <row r="177" spans="1:9" ht="16.5">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -9668,7 +9083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:9">
+    <row r="178" spans="1:9" ht="16.5">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -9694,7 +9109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:9">
+    <row r="179" spans="1:9" ht="16.5">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -9718,7 +9133,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="180" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A180" s="15">
         <v>179</v>
       </c>
@@ -9742,7 +9157,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="181" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A181" s="15">
         <v>180</v>
       </c>
@@ -9766,7 +9181,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="182" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -9790,7 +9205,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="1:9">
+    <row r="183" spans="1:9" ht="16.5">
       <c r="A183" s="15">
         <v>182</v>
       </c>
@@ -9813,7 +9228,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" ht="16.5" spans="1:9">
+    <row r="184" spans="1:9" ht="16.5">
       <c r="A184" s="15">
         <v>183</v>
       </c>
@@ -9836,7 +9251,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="1:9">
+    <row r="185" spans="1:9" ht="16.5">
       <c r="A185" s="15">
         <v>184</v>
       </c>
@@ -9859,7 +9274,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" ht="16.5" spans="1:9">
+    <row r="186" spans="1:9" ht="16.5">
       <c r="A186" s="15">
         <v>185</v>
       </c>
@@ -9882,7 +9297,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" ht="16.5" spans="1:9">
+    <row r="187" spans="1:9" ht="16.5">
       <c r="A187" s="15">
         <v>186</v>
       </c>
@@ -9905,7 +9320,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" ht="16.5" spans="1:9">
+    <row r="188" spans="1:9" ht="16.5">
       <c r="A188" s="15">
         <v>187</v>
       </c>
@@ -9928,7 +9343,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" ht="16.5" spans="1:9">
+    <row r="189" spans="1:9" ht="16.5">
       <c r="A189" s="15">
         <v>188</v>
       </c>
@@ -9951,7 +9366,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" ht="16.5" spans="1:9">
+    <row r="190" spans="1:9" ht="16.5">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -9974,7 +9389,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="191" ht="16.5" spans="1:9">
+    <row r="191" spans="1:9" ht="16.5">
       <c r="A191" s="15">
         <v>190</v>
       </c>
@@ -9997,7 +9412,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" ht="16.5" spans="1:9">
+    <row r="192" spans="1:9" ht="16.5">
       <c r="A192" s="15">
         <v>191</v>
       </c>
@@ -10020,7 +9435,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" ht="16.5" spans="1:9">
+    <row r="193" spans="1:9" ht="16.5">
       <c r="A193" s="15">
         <v>192</v>
       </c>
@@ -10043,7 +9458,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" ht="16.5" spans="1:9">
+    <row r="194" spans="1:9" ht="16.5">
       <c r="A194" s="15">
         <v>193</v>
       </c>
@@ -10066,7 +9481,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" ht="16.5" spans="1:9">
+    <row r="195" spans="1:9" ht="16.5">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -10089,7 +9504,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" ht="16.5" spans="1:9">
+    <row r="196" spans="1:9" ht="16.5">
       <c r="A196" s="15">
         <v>195</v>
       </c>
@@ -10112,7 +9527,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="197" ht="16.5" spans="1:9">
+    <row r="197" spans="1:9" ht="16.5">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -10135,7 +9550,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" ht="16.5" spans="1:9">
+    <row r="198" spans="1:9" ht="16.5">
       <c r="A198" s="15">
         <v>197</v>
       </c>
@@ -10158,7 +9573,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" ht="16.5" spans="1:9">
+    <row r="199" spans="1:9" ht="16.5">
       <c r="A199" s="15">
         <v>198</v>
       </c>
@@ -10181,7 +9596,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="200" ht="16.5" spans="1:9">
+    <row r="200" spans="1:9" ht="16.5">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -10204,7 +9619,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" ht="16.5" spans="1:9">
+    <row r="201" spans="1:9" ht="16.5">
       <c r="A201" s="15">
         <v>200</v>
       </c>
@@ -10227,7 +9642,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="202" ht="16.5" spans="1:9">
+    <row r="202" spans="1:9" ht="16.5">
       <c r="A202" s="15">
         <v>201</v>
       </c>
@@ -10250,7 +9665,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" ht="16.5" spans="1:9">
+    <row r="203" spans="1:9" ht="16.5">
       <c r="A203" s="15">
         <v>202</v>
       </c>
@@ -10273,7 +9688,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="204" ht="16.5" spans="1:9">
+    <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="15">
         <v>203</v>
       </c>
@@ -10299,7 +9714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" ht="16.5" spans="1:9">
+    <row r="205" spans="1:9" ht="16.5">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -10325,7 +9740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" ht="16.5" spans="1:9">
+    <row r="206" spans="1:9" ht="16.5">
       <c r="A206" s="15">
         <v>205</v>
       </c>
@@ -10351,7 +9766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" ht="16.5" spans="1:9">
+    <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="15">
         <v>206</v>
       </c>
@@ -10374,7 +9789,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" ht="16.5" spans="1:9">
+    <row r="208" spans="1:9" ht="16.5">
       <c r="A208" s="15">
         <v>207</v>
       </c>
@@ -10397,7 +9812,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" ht="16.5" spans="1:9">
+    <row r="209" spans="1:9" ht="16.5">
       <c r="A209" s="15">
         <v>208</v>
       </c>
@@ -10420,7 +9835,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" ht="16.5" spans="1:9">
+    <row r="210" spans="1:9" ht="16.5">
       <c r="A210" s="15">
         <v>209</v>
       </c>
@@ -10443,7 +9858,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="211" ht="16.5" spans="1:9">
+    <row r="211" spans="1:9" ht="16.5">
       <c r="A211" s="15">
         <v>210</v>
       </c>
@@ -10466,7 +9881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" ht="16.5" spans="1:9">
+    <row r="212" spans="1:9" ht="16.5">
       <c r="A212" s="15">
         <v>211</v>
       </c>
@@ -10489,7 +9904,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="213" ht="16.5" spans="1:9">
+    <row r="213" spans="1:9" ht="16.5">
       <c r="A213" s="15">
         <v>212</v>
       </c>
@@ -10512,7 +9927,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" ht="16.5" spans="1:9">
+    <row r="214" spans="1:9" ht="16.5">
       <c r="A214" s="15">
         <v>213</v>
       </c>
@@ -10535,7 +9950,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" ht="16.5" spans="1:9">
+    <row r="215" spans="1:9" ht="16.5">
       <c r="A215" s="15">
         <v>214</v>
       </c>
@@ -10558,7 +9973,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" ht="16.5" spans="1:9">
+    <row r="216" spans="1:9" ht="16.5">
       <c r="A216" s="15">
         <v>215</v>
       </c>
@@ -10581,7 +9996,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" ht="16.5" spans="1:9">
+    <row r="217" spans="1:9" ht="16.5">
       <c r="A217" s="15">
         <v>216</v>
       </c>
@@ -10604,7 +10019,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" ht="16.5" spans="1:9">
+    <row r="218" spans="1:9" ht="16.5">
       <c r="A218" s="15">
         <v>217</v>
       </c>
@@ -10627,7 +10042,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="219" ht="16.5" spans="1:9">
+    <row r="219" spans="1:9" ht="16.5">
       <c r="A219" s="15">
         <v>218</v>
       </c>
@@ -10650,7 +10065,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" ht="16.5" spans="1:9">
+    <row r="220" spans="1:9" ht="16.5">
       <c r="A220" s="15">
         <v>219</v>
       </c>
@@ -10673,7 +10088,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" ht="16.5" spans="1:9">
+    <row r="221" spans="1:9" ht="16.5">
       <c r="A221" s="15">
         <v>220</v>
       </c>
@@ -10696,7 +10111,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" ht="16.5" spans="1:9">
+    <row r="222" spans="1:9" ht="16.5">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -10719,7 +10134,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="223" ht="16.5" spans="1:9">
+    <row r="223" spans="1:9" ht="16.5">
       <c r="A223" s="15">
         <v>222</v>
       </c>
@@ -10742,7 +10157,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" ht="16.5" spans="1:9">
+    <row r="224" spans="1:9" ht="16.5">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -10765,7 +10180,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="225" ht="16.5" spans="1:9">
+    <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="15">
         <v>224</v>
       </c>
@@ -10788,7 +10203,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" ht="16.5" spans="1:7">
+    <row r="226" spans="1:9" ht="16.5">
       <c r="A226" s="15">
         <v>225</v>
       </c>
@@ -10811,7 +10226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" ht="16.5" spans="1:7">
+    <row r="227" spans="1:9" ht="16.5">
       <c r="A227" s="15">
         <v>226</v>
       </c>
@@ -10834,7 +10249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" ht="16.5" spans="1:7">
+    <row r="228" spans="1:9" ht="16.5">
       <c r="A228" s="15">
         <v>227</v>
       </c>
@@ -10857,7 +10272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" ht="16.5" spans="1:7">
+    <row r="229" spans="1:9" ht="16.5">
       <c r="A229" s="15">
         <v>228</v>
       </c>
@@ -10880,7 +10295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" ht="16.5" spans="1:7">
+    <row r="230" spans="1:9" ht="16.5">
       <c r="A230" s="15">
         <v>229</v>
       </c>
@@ -10903,7 +10318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" ht="16.5" spans="1:7">
+    <row r="231" spans="1:9" ht="16.5">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -10926,7 +10341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" ht="16.5" spans="1:7">
+    <row r="232" spans="1:9" ht="16.5">
       <c r="A232" s="15">
         <v>231</v>
       </c>
@@ -10949,7 +10364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" ht="16.5" spans="1:7">
+    <row r="233" spans="1:9" ht="16.5">
       <c r="A233" s="15">
         <v>232</v>
       </c>
@@ -10972,7 +10387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" ht="16.5" spans="1:7">
+    <row r="234" spans="1:9" ht="16.5">
       <c r="A234" s="15">
         <v>233</v>
       </c>
@@ -10995,7 +10410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" ht="16.5" spans="1:9">
+    <row r="235" spans="1:9" ht="16.5">
       <c r="A235" s="15">
         <v>234</v>
       </c>
@@ -11021,7 +10436,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="236" ht="16.5" spans="1:9">
+    <row r="236" spans="1:9" ht="16.5">
       <c r="A236" s="15">
         <v>235</v>
       </c>
@@ -11047,7 +10462,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="237" ht="16.5" spans="1:9">
+    <row r="237" spans="1:9" ht="16.5">
       <c r="A237" s="15">
         <v>236</v>
       </c>
@@ -11073,7 +10488,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="238" ht="16.5" spans="1:9">
+    <row r="238" spans="1:9" ht="16.5">
       <c r="A238" s="15">
         <v>237</v>
       </c>
@@ -11099,7 +10514,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="239" ht="16.5" spans="1:9">
+    <row r="239" spans="1:9" ht="16.5">
       <c r="A239" s="15">
         <v>238</v>
       </c>
@@ -11125,7 +10540,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="240" ht="16.5" spans="1:9">
+    <row r="240" spans="1:9" ht="16.5">
       <c r="A240" s="15">
         <v>239</v>
       </c>
@@ -11151,7 +10566,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" ht="16.5" spans="1:9">
+    <row r="241" spans="1:9" ht="16.5">
       <c r="A241" s="15">
         <v>240</v>
       </c>
@@ -11177,7 +10592,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" ht="16.5" spans="1:9">
+    <row r="242" spans="1:9" ht="16.5">
       <c r="A242" s="15">
         <v>241</v>
       </c>
@@ -11203,7 +10618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" ht="16.5" spans="1:9">
+    <row r="243" spans="1:9" ht="16.5">
       <c r="A243" s="15">
         <v>242</v>
       </c>
@@ -11229,7 +10644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" ht="16.5" spans="1:9">
+    <row r="244" spans="1:9" ht="16.5">
       <c r="A244" s="15">
         <v>243</v>
       </c>
@@ -11255,7 +10670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" ht="16.5" spans="1:9">
+    <row r="245" spans="1:9" ht="16.5">
       <c r="A245" s="15">
         <v>244</v>
       </c>
@@ -11281,7 +10696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" ht="16.5" spans="1:9">
+    <row r="246" spans="1:9" ht="16.5">
       <c r="A246" s="15">
         <v>245</v>
       </c>
@@ -11307,7 +10722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" ht="16.5" spans="1:9">
+    <row r="247" spans="1:9" ht="16.5">
       <c r="A247" s="15">
         <v>246</v>
       </c>
@@ -11333,7 +10748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" ht="16.5" spans="1:9">
+    <row r="248" spans="1:9" ht="16.5">
       <c r="A248" s="15">
         <v>247</v>
       </c>
@@ -11359,7 +10774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" ht="16.5" spans="1:9">
+    <row r="249" spans="1:9" ht="16.5">
       <c r="A249" s="15">
         <v>248</v>
       </c>
@@ -11385,7 +10800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" ht="16.5" spans="1:9">
+    <row r="250" spans="1:9" ht="16.5">
       <c r="A250" s="15">
         <v>249</v>
       </c>
@@ -11411,7 +10826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" ht="16.5" spans="1:9">
+    <row r="251" spans="1:9" ht="16.5">
       <c r="A251" s="15">
         <v>250</v>
       </c>
@@ -11437,7 +10852,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="252" ht="16.5" spans="1:9">
+    <row r="252" spans="1:9" ht="16.5">
       <c r="A252" s="15">
         <v>251</v>
       </c>
@@ -11463,7 +10878,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" ht="16.5" spans="1:9">
+    <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="15">
         <v>252</v>
       </c>
@@ -11490,7 +10905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" ht="16.5" spans="1:9">
+    <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="15">
         <v>253</v>
       </c>
@@ -11516,7 +10931,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="255" ht="16.5" spans="1:9">
+    <row r="255" spans="1:9" ht="16.5">
       <c r="A255" s="15">
         <v>254</v>
       </c>
@@ -11542,7 +10957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="256" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A256" s="15">
         <v>255</v>
       </c>
@@ -11569,7 +10984,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A257" s="15">
         <v>256</v>
       </c>
@@ -11595,7 +11010,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A258" s="15">
         <v>257</v>
       </c>
@@ -11621,7 +11036,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A259" s="15">
         <v>258</v>
       </c>
@@ -11647,7 +11062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A260" s="15">
         <v>259</v>
       </c>
@@ -11673,7 +11088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" ht="16.5" spans="1:9">
+    <row r="261" spans="1:9" ht="16.5">
       <c r="A261" s="15">
         <v>260</v>
       </c>
@@ -11699,7 +11114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" ht="16.5" spans="1:9">
+    <row r="262" spans="1:9" ht="16.5">
       <c r="A262" s="15">
         <v>261</v>
       </c>
@@ -11725,7 +11140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A263" s="15">
         <v>262</v>
       </c>
@@ -11751,7 +11166,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A264" s="15">
         <v>263</v>
       </c>
@@ -11777,7 +11192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A265" s="15">
         <v>264</v>
       </c>
@@ -11803,7 +11218,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A266" s="15">
         <v>265</v>
       </c>
@@ -11829,7 +11244,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A267" s="15">
         <v>266</v>
       </c>
@@ -11855,7 +11270,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="268" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="268" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A268" s="24">
         <v>267</v>
       </c>
@@ -11881,7 +11296,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="269" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="269" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A269" s="15">
         <v>268</v>
       </c>
@@ -11907,7 +11322,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="270" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="270" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A270" s="15">
         <v>269</v>
       </c>
@@ -11933,7 +11348,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="271" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="271" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A271" s="15">
         <v>270</v>
       </c>
@@ -11959,7 +11374,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="272" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="272" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A272" s="15">
         <v>271</v>
       </c>
@@ -11985,7 +11400,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="273" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="273" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A273" s="15">
         <v>272</v>
       </c>
@@ -12011,7 +11426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="274" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A274" s="15">
         <v>273</v>
       </c>
@@ -12037,7 +11452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A275" s="15">
         <v>274</v>
       </c>
@@ -12063,7 +11478,7 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A276" s="36">
         <v>275</v>
       </c>
@@ -12086,7 +11501,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A277" s="15">
         <v>276</v>
       </c>
@@ -12112,7 +11527,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="278" ht="16.5" spans="1:9">
+    <row r="278" spans="1:9" ht="16.5">
       <c r="A278" s="15">
         <v>277</v>
       </c>
@@ -12138,7 +11553,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="279" ht="16.5" spans="1:9">
+    <row r="279" spans="1:9" ht="16.5">
       <c r="A279" s="15">
         <v>278</v>
       </c>
@@ -12161,7 +11576,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="280" ht="16.5" spans="1:9">
+    <row r="280" spans="1:9" ht="16.5">
       <c r="A280" s="15">
         <v>279</v>
       </c>
@@ -12187,7 +11602,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="281" ht="16.5" spans="1:9">
+    <row r="281" spans="1:9" ht="16.5">
       <c r="A281" s="15">
         <v>280</v>
       </c>
@@ -12213,7 +11628,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="282" ht="16.5" spans="1:9">
+    <row r="282" spans="1:9" ht="16.5">
       <c r="A282" s="15">
         <v>281</v>
       </c>
@@ -12239,7 +11654,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="283" ht="16.5" spans="1:9">
+    <row r="283" spans="1:9" ht="16.5">
       <c r="A283" s="15">
         <v>282</v>
       </c>
@@ -12265,7 +11680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A284" s="15">
         <v>283</v>
       </c>
@@ -12291,7 +11706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="285" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A285" s="15">
         <v>284</v>
       </c>
@@ -12317,7 +11732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A286" s="15">
         <v>285</v>
       </c>
@@ -12343,7 +11758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="8" customFormat="1" ht="16.5" spans="1:9">
+    <row r="287" spans="1:9" s="8" customFormat="1" ht="16.5">
       <c r="A287" s="15">
         <v>286</v>
       </c>
@@ -12369,7 +11784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="288" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A288" s="36">
         <v>287</v>
       </c>
@@ -12395,7 +11810,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="289" ht="16.5" spans="1:9">
+    <row r="289" spans="1:36" ht="16.5">
       <c r="A289" s="15">
         <v>288</v>
       </c>
@@ -12421,7 +11836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="290" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A290" s="15">
         <v>289</v>
       </c>
@@ -12447,7 +11862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="291" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A291" s="15">
         <v>290</v>
       </c>
@@ -12473,7 +11888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" ht="16.5" spans="1:9">
+    <row r="292" spans="1:36" ht="16.5">
       <c r="A292" s="15">
         <v>291</v>
       </c>
@@ -12499,7 +11914,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="293" ht="16.5" spans="1:9">
+    <row r="293" spans="1:36" ht="16.5">
       <c r="A293" s="15">
         <v>292</v>
       </c>
@@ -12525,7 +11940,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="294" ht="16.5" spans="1:9">
+    <row r="294" spans="1:36" ht="16.5">
       <c r="A294" s="15">
         <v>293</v>
       </c>
@@ -12552,7 +11967,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="295" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="295" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A295" s="15">
         <v>294</v>
       </c>
@@ -12606,7 +12021,7 @@
       <c r="AI295" s="5"/>
       <c r="AJ295" s="5"/>
     </row>
-    <row r="296" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="296" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A296" s="15">
         <v>295</v>
       </c>
@@ -12660,7 +12075,7 @@
       <c r="AI296" s="5"/>
       <c r="AJ296" s="5"/>
     </row>
-    <row r="297" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="297" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A297" s="15">
         <v>296</v>
       </c>
@@ -12714,7 +12129,7 @@
       <c r="AI297" s="5"/>
       <c r="AJ297" s="5"/>
     </row>
-    <row r="298" ht="16.5" spans="1:36">
+    <row r="298" spans="1:36" ht="16.5">
       <c r="A298" s="15">
         <v>297</v>
       </c>
@@ -12768,7 +12183,7 @@
       <c r="AI298" s="5"/>
       <c r="AJ298" s="5"/>
     </row>
-    <row r="299" s="11" customFormat="1" ht="16.5" spans="1:36">
+    <row r="299" spans="1:36" s="11" customFormat="1" ht="16.5">
       <c r="A299" s="15">
         <v>298</v>
       </c>
@@ -12822,7 +12237,7 @@
       <c r="AI299" s="5"/>
       <c r="AJ299" s="5"/>
     </row>
-    <row r="300" ht="16.5" spans="1:9">
+    <row r="300" spans="1:36" ht="16.5">
       <c r="A300" s="15">
         <v>299</v>
       </c>
@@ -12849,7 +12264,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="301" spans="1:36" s="5" customFormat="1" ht="16.5">
       <c r="A301" s="15">
         <v>300</v>
       </c>
@@ -12876,7 +12291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" ht="16.5" spans="1:9">
+    <row r="302" spans="1:36" ht="16.5">
       <c r="A302" s="15">
         <v>301</v>
       </c>
@@ -12903,7 +12318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" ht="16.5" spans="1:9">
+    <row r="303" spans="1:36" ht="16.5">
       <c r="A303" s="15">
         <v>302</v>
       </c>
@@ -12930,7 +12345,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="304" ht="16.5" spans="1:9">
+    <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="15">
         <v>303</v>
       </c>
@@ -12957,7 +12372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A305" s="15">
         <v>304</v>
       </c>
@@ -12983,7 +12398,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A306" s="15">
         <v>305</v>
       </c>
@@ -13009,7 +12424,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="307" ht="16.5" spans="1:7">
+    <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="15">
         <v>306</v>
       </c>
@@ -13032,7 +12447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A308" s="15">
         <v>307</v>
       </c>
@@ -13058,7 +12473,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A309" s="15">
         <v>308</v>
       </c>
@@ -13084,7 +12499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A310" s="15">
         <v>309</v>
       </c>
@@ -13110,7 +12525,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A311" s="15">
         <v>310</v>
       </c>
@@ -13136,7 +12551,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="312" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="312" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A312" s="15">
         <v>311</v>
       </c>
@@ -13159,7 +12574,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="313" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="313" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A313" s="15">
         <v>312</v>
       </c>
@@ -13182,7 +12597,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="314" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="314" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A314" s="15">
         <v>313</v>
       </c>
@@ -13205,7 +12620,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="315" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="315" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A315" s="15">
         <v>314</v>
       </c>
@@ -13228,15 +12643,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="316" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A316" s="15">
         <v>315</v>
       </c>
       <c r="B316" s="49" t="s">
+        <v>989</v>
+      </c>
+      <c r="C316" s="37" t="s">
         <v>919</v>
-      </c>
-      <c r="C316" s="37" t="s">
-        <v>920</v>
       </c>
       <c r="E316" s="6">
         <v>1</v>
@@ -13251,41 +12666,41 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A317" s="15">
         <v>316</v>
       </c>
       <c r="B317" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="C317" s="37" t="s">
         <v>921</v>
       </c>
-      <c r="C317" s="37" t="s">
+      <c r="D317" s="47" t="s">
         <v>922</v>
       </c>
-      <c r="D317" s="47" t="s">
+      <c r="E317" s="6">
+        <v>1</v>
+      </c>
+      <c r="F317" s="6">
+        <v>1</v>
+      </c>
+      <c r="G317" s="6">
+        <v>1</v>
+      </c>
+      <c r="I317" s="37" t="s">
         <v>923</v>
       </c>
-      <c r="E317" s="6">
-        <v>1</v>
-      </c>
-      <c r="F317" s="6">
-        <v>1</v>
-      </c>
-      <c r="G317" s="6">
-        <v>1</v>
-      </c>
-      <c r="I317" s="37" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="318" s="5" customFormat="1" ht="16.5" spans="1:9">
+    </row>
+    <row r="318" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A318" s="15">
         <v>317</v>
       </c>
       <c r="B318" s="50" t="s">
+        <v>924</v>
+      </c>
+      <c r="C318" s="31" t="s">
         <v>925</v>
-      </c>
-      <c r="C318" s="31" t="s">
-        <v>926</v>
       </c>
       <c r="D318" s="32"/>
       <c r="E318" s="5">
@@ -13298,45 +12713,45 @@
         <v>0</v>
       </c>
       <c r="I318" s="31" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="319" s="5" customFormat="1" ht="16.5" spans="1:9">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A319" s="15">
         <v>318</v>
       </c>
       <c r="B319" s="32" t="s">
+        <v>926</v>
+      </c>
+      <c r="C319" s="31" t="s">
         <v>927</v>
       </c>
-      <c r="C319" s="31" t="s">
+      <c r="D319" s="32" t="s">
         <v>928</v>
       </c>
-      <c r="D319" s="32" t="s">
+      <c r="E319" s="5">
+        <v>0</v>
+      </c>
+      <c r="F319" s="5">
+        <v>0</v>
+      </c>
+      <c r="G319" s="5">
+        <v>0</v>
+      </c>
+      <c r="I319" s="31" t="s">
         <v>929</v>
       </c>
-      <c r="E319" s="5">
-        <v>0</v>
-      </c>
-      <c r="F319" s="5">
-        <v>0</v>
-      </c>
-      <c r="G319" s="5">
-        <v>0</v>
-      </c>
-      <c r="I319" s="31" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="320" s="5" customFormat="1" ht="16.5" spans="1:9">
+    </row>
+    <row r="320" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A320" s="15">
         <v>319</v>
       </c>
       <c r="B320" s="32" t="s">
+        <v>930</v>
+      </c>
+      <c r="C320" s="31" t="s">
         <v>931</v>
       </c>
-      <c r="C320" s="31" t="s">
-        <v>932</v>
-      </c>
       <c r="E320" s="5">
         <v>0</v>
       </c>
@@ -13347,76 +12762,76 @@
         <v>0</v>
       </c>
       <c r="I320" s="31" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="321" s="5" customFormat="1" ht="16.5" spans="1:9">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A321" s="15">
         <v>320</v>
       </c>
       <c r="B321" s="32" t="s">
+        <v>932</v>
+      </c>
+      <c r="C321" s="52" t="s">
         <v>933</v>
       </c>
-      <c r="C321" s="52" t="s">
+      <c r="D321" s="32" t="s">
         <v>934</v>
       </c>
-      <c r="D321" s="32" t="s">
+      <c r="E321" s="5">
+        <v>0</v>
+      </c>
+      <c r="F321" s="5">
+        <v>0</v>
+      </c>
+      <c r="G321" s="5">
+        <v>0</v>
+      </c>
+      <c r="H321" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="E321" s="5">
-        <v>0</v>
-      </c>
-      <c r="F321" s="5">
-        <v>0</v>
-      </c>
-      <c r="G321" s="5">
-        <v>0</v>
-      </c>
-      <c r="H321" s="5" t="s">
-        <v>936</v>
-      </c>
       <c r="I321" s="31" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="322" s="5" customFormat="1" ht="16.5" spans="1:9">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A322" s="15">
         <v>321</v>
       </c>
       <c r="B322" s="32" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C322" s="31" t="s">
         <v>476</v>
       </c>
       <c r="D322" s="32" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E322" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F322" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G322" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I322" s="51">
         <v>44354</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A323" s="15">
         <v>322</v>
       </c>
       <c r="B323" s="32" t="s">
+        <v>938</v>
+      </c>
+      <c r="C323" s="31" t="s">
         <v>939</v>
       </c>
-      <c r="C323" s="31" t="s">
+      <c r="D323" s="32" t="s">
         <v>940</v>
-      </c>
-      <c r="D323" s="32" t="s">
-        <v>941</v>
       </c>
       <c r="E323" s="5">
         <v>0</v>
@@ -13431,18 +12846,18 @@
         <v>369</v>
       </c>
     </row>
-    <row r="324" ht="16.5" spans="1:9">
+    <row r="324" spans="1:9" ht="16.5">
       <c r="A324" s="15">
         <v>323</v>
       </c>
       <c r="B324" s="53" t="s">
+        <v>941</v>
+      </c>
+      <c r="C324" s="31" t="s">
         <v>942</v>
       </c>
-      <c r="C324" s="31" t="s">
+      <c r="D324" t="s">
         <v>943</v>
-      </c>
-      <c r="D324" t="s">
-        <v>944</v>
       </c>
       <c r="E324" s="5">
         <v>1</v>
@@ -13457,18 +12872,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" ht="16.5" spans="1:9">
+    <row r="325" spans="1:9" ht="16.5">
       <c r="A325" s="15">
         <v>324</v>
       </c>
       <c r="B325" t="s">
+        <v>944</v>
+      </c>
+      <c r="C325" t="s">
         <v>945</v>
       </c>
-      <c r="C325" t="s">
+      <c r="D325" t="s">
         <v>946</v>
-      </c>
-      <c r="D325" t="s">
-        <v>947</v>
       </c>
       <c r="E325">
         <v>1</v>
@@ -13483,18 +12898,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" ht="16.5" spans="1:9">
+    <row r="326" spans="1:9" ht="16.5">
       <c r="A326" s="15">
         <v>325</v>
       </c>
       <c r="B326" s="32" t="s">
+        <v>947</v>
+      </c>
+      <c r="C326" t="s">
         <v>948</v>
       </c>
-      <c r="C326" t="s">
+      <c r="D326" s="32" t="s">
         <v>949</v>
-      </c>
-      <c r="D326" s="32" t="s">
-        <v>950</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -13509,18 +12924,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="327" spans="1:9" s="9" customFormat="1" ht="16.5">
       <c r="A327" s="15">
         <v>326</v>
       </c>
       <c r="B327" s="41" t="s">
+        <v>950</v>
+      </c>
+      <c r="C327" s="42" t="s">
         <v>951</v>
       </c>
-      <c r="C327" s="42" t="s">
+      <c r="D327" s="41" t="s">
         <v>952</v>
-      </c>
-      <c r="D327" s="41" t="s">
-        <v>953</v>
       </c>
       <c r="E327" s="9">
         <v>1</v>
@@ -13535,18 +12950,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" ht="16.5" spans="1:9">
+    <row r="328" spans="1:9" ht="16.5">
       <c r="A328" s="15">
         <v>327</v>
       </c>
       <c r="B328" s="18" t="s">
+        <v>953</v>
+      </c>
+      <c r="C328" s="18" t="s">
         <v>954</v>
       </c>
-      <c r="C328" s="18" t="s">
+      <c r="D328" s="18" t="s">
         <v>955</v>
-      </c>
-      <c r="D328" s="18" t="s">
-        <v>956</v>
       </c>
       <c r="E328">
         <v>0</v>
@@ -13561,67 +12976,67 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="329" ht="16.5" spans="1:9">
+    <row r="329" spans="1:9" ht="16.5">
       <c r="A329" s="15">
         <v>328</v>
       </c>
       <c r="B329" s="53" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C329" s="31" t="s">
         <v>166</v>
       </c>
       <c r="D329" t="s">
+        <v>957</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+      <c r="F329">
+        <v>1</v>
+      </c>
+      <c r="G329">
+        <v>1</v>
+      </c>
+      <c r="I329" s="31" t="s">
         <v>958</v>
       </c>
-      <c r="E329">
-        <v>1</v>
-      </c>
-      <c r="F329">
-        <v>1</v>
-      </c>
-      <c r="G329">
-        <v>1</v>
-      </c>
-      <c r="I329" s="31" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="330" ht="16.5" spans="1:9">
+    </row>
+    <row r="330" spans="1:9" ht="16.5">
       <c r="A330" s="15">
         <v>329</v>
       </c>
       <c r="B330" s="53" t="s">
+        <v>959</v>
+      </c>
+      <c r="C330" s="31" t="s">
         <v>960</v>
       </c>
-      <c r="C330" s="31" t="s">
+      <c r="E330">
+        <v>1</v>
+      </c>
+      <c r="F330">
+        <v>1</v>
+      </c>
+      <c r="G330">
+        <v>1</v>
+      </c>
+      <c r="I330" s="31" t="s">
         <v>961</v>
       </c>
-      <c r="E330">
-        <v>1</v>
-      </c>
-      <c r="F330">
-        <v>1</v>
-      </c>
-      <c r="G330">
-        <v>1</v>
-      </c>
-      <c r="I330" s="31" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="331" ht="16.5" spans="1:9">
+    </row>
+    <row r="331" spans="1:9" ht="16.5">
       <c r="A331" s="15">
         <v>330</v>
       </c>
       <c r="B331" s="53" t="s">
+        <v>962</v>
+      </c>
+      <c r="C331" s="31" t="s">
         <v>963</v>
       </c>
-      <c r="C331" s="31" t="s">
+      <c r="D331" s="18" t="s">
         <v>964</v>
-      </c>
-      <c r="D331" s="18" t="s">
-        <v>965</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -13636,41 +13051,41 @@
         <v>44375</v>
       </c>
     </row>
-    <row r="332" ht="16.5" spans="1:9">
+    <row r="332" spans="1:9" ht="16.5">
       <c r="A332" s="15">
         <v>331</v>
       </c>
       <c r="B332" s="54" t="s">
+        <v>965</v>
+      </c>
+      <c r="C332" t="s">
         <v>966</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" s="55" t="s">
         <v>967</v>
       </c>
-      <c r="D332" s="55" t="s">
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="I332" t="s">
         <v>968</v>
       </c>
-      <c r="E332">
-        <v>1</v>
-      </c>
-      <c r="F332">
-        <v>1</v>
-      </c>
-      <c r="G332">
-        <v>1</v>
-      </c>
-      <c r="I332" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="333" ht="16.5" spans="1:9">
+    </row>
+    <row r="333" spans="1:9" ht="16.5">
       <c r="A333" s="15">
         <v>332</v>
       </c>
       <c r="B333" s="53" t="s">
+        <v>969</v>
+      </c>
+      <c r="C333" t="s">
         <v>970</v>
-      </c>
-      <c r="C333" t="s">
-        <v>971</v>
       </c>
       <c r="E333">
         <v>1</v>
@@ -13685,19 +13100,19 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="334" ht="16.5" spans="1:7">
+    <row r="334" spans="1:9" ht="16.5">
       <c r="A334" s="15">
         <v>333</v>
       </c>
       <c r="B334" s="53" t="s">
+        <v>971</v>
+      </c>
+      <c r="C334" s="56" t="s">
         <v>972</v>
       </c>
-      <c r="C334" s="56" t="s">
+      <c r="D334" s="18" t="s">
         <v>973</v>
       </c>
-      <c r="D334" s="18" t="s">
-        <v>974</v>
-      </c>
       <c r="E334">
         <v>0</v>
       </c>
@@ -13708,44 +13123,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" ht="15.75" spans="1:9">
+    <row r="335" spans="1:9" ht="15.75">
       <c r="A335" s="5">
         <v>334</v>
       </c>
       <c r="B335" s="54" t="s">
+        <v>974</v>
+      </c>
+      <c r="C335" t="s">
         <v>975</v>
       </c>
-      <c r="C335" t="s">
+      <c r="D335" s="54" t="s">
         <v>976</v>
       </c>
-      <c r="D335" s="54" t="s">
+      <c r="E335" s="5">
+        <v>0</v>
+      </c>
+      <c r="F335" s="5">
+        <v>0</v>
+      </c>
+      <c r="G335" s="5">
+        <v>0</v>
+      </c>
+      <c r="I335" s="31" t="s">
         <v>977</v>
       </c>
-      <c r="E335" s="5">
-        <v>0</v>
-      </c>
-      <c r="F335" s="5">
-        <v>0</v>
-      </c>
-      <c r="G335" s="5">
-        <v>0</v>
-      </c>
-      <c r="I335" s="31" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="336" ht="15.75" spans="1:9">
+    </row>
+    <row r="336" spans="1:9" ht="15.75">
       <c r="A336" s="5">
         <v>335</v>
       </c>
       <c r="B336" s="54" t="s">
+        <v>978</v>
+      </c>
+      <c r="C336" t="s">
         <v>979</v>
       </c>
-      <c r="C336" t="s">
+      <c r="D336" s="54" t="s">
         <v>980</v>
-      </c>
-      <c r="D336" s="54" t="s">
-        <v>981</v>
       </c>
       <c r="E336">
         <v>1</v>
@@ -13760,44 +13175,44 @@
         <v>44414</v>
       </c>
     </row>
-    <row r="337" ht="15.75" spans="1:9">
+    <row r="337" spans="1:9" ht="15.75">
       <c r="A337" s="5">
         <v>336</v>
       </c>
       <c r="B337" s="54" t="s">
+        <v>981</v>
+      </c>
+      <c r="C337" t="s">
         <v>982</v>
       </c>
-      <c r="C337" t="s">
+      <c r="D337" s="57" t="s">
         <v>983</v>
       </c>
-      <c r="D337" s="57" t="s">
+      <c r="E337">
+        <v>1</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+      <c r="G337">
+        <v>1</v>
+      </c>
+      <c r="I337" t="s">
         <v>984</v>
       </c>
-      <c r="E337">
-        <v>1</v>
-      </c>
-      <c r="F337">
-        <v>1</v>
-      </c>
-      <c r="G337">
-        <v>1</v>
-      </c>
-      <c r="I337" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="338" ht="15.75" spans="1:9">
+    </row>
+    <row r="338" spans="1:9" ht="15.75">
       <c r="A338" s="5">
         <v>337</v>
       </c>
       <c r="B338" s="54" t="s">
+        <v>985</v>
+      </c>
+      <c r="C338" t="s">
         <v>986</v>
       </c>
-      <c r="C338" t="s">
+      <c r="D338" s="54" t="s">
         <v>987</v>
-      </c>
-      <c r="D338" s="54" t="s">
-        <v>988</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -13813,39 +13228,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H338">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H338"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+        <v>988</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_7.27/game_module_config_cjj.xlsx
+++ b/config_7.27/game_module_config_cjj.xlsx
@@ -4475,10 +4475,10 @@
   <dimension ref="A1:AJ338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C268" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C334" sqref="C334"/>
+      <selection pane="bottomRight" activeCell="D282" sqref="D282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11466,13 +11466,13 @@
         <v>795</v>
       </c>
       <c r="E275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275" s="51">
         <v>44368</v>
